--- a/data/machine/alarmList.xlsx
+++ b/data/machine/alarmList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>报警编号</t>
   </si>
   <si>
-    <t>设备编码</t>
-  </si>
-  <si>
     <t>设备名称</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>alarmFailureCode</t>
   </si>
   <si>
-    <t>machineCode</t>
-  </si>
-  <si>
     <t>machineName</t>
   </si>
   <si>
@@ -142,19 +136,34 @@
   </si>
   <si>
     <t>solution</t>
+  </si>
+  <si>
+    <t>料仓序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedBinID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,9 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +222,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -522,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AH1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,124 +569,124 @@
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -683,7 +695,7 @@
       <c r="C3" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -697,7 +709,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -710,7 +722,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>